--- a/medicine/Mort/Cimetière_ancien_de_la_Guillotière/Cimetière_ancien_de_la_Guillotière.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_la_Guillotière/Cimetière_ancien_de_la_Guillotière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_la_Guilloti%C3%A8re</t>
+          <t>Cimetière_ancien_de_la_Guillotière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière ancien de la Guillotière est le plus ancien des deux cimetières de la Guillotière en France. Il est le plus au nord des deux.
  Portail de la métropole de Lyon   Portail sur la mort                    </t>
